--- a/data/balance_sheet/3digits/total/024_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/024_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>024-Support services to forestry</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>024-Support services to forestry</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,12 +915,17 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>372917.86237</v>
@@ -1490,35 +940,40 @@
         <v>460124.21247</v>
       </c>
       <c r="G5" s="32" t="n">
-        <v>404184.63951</v>
+        <v>417637.2754700001</v>
       </c>
       <c r="H5" s="33" t="n">
-        <v>109144.41127</v>
+        <v>109700.24539</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>145797.28876</v>
+        <v>146295.09968</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>153690.70075</v>
+        <v>153691.33456</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>215976.2267</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>223857.62155</v>
+        <v>224274.26166</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>293363.8224000001</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>296739.8081</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>397172.466</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
-        <v>66198.07709000001</v>
+        <v>66198.07708999999</v>
       </c>
       <c r="D6" s="23" t="n">
         <v>102721.17806</v>
@@ -1530,32 +985,37 @@
         <v>96924.14230000001</v>
       </c>
       <c r="G6" s="23" t="n">
-        <v>75801.51686</v>
+        <v>76232.59665000001</v>
       </c>
       <c r="H6" s="33" t="n">
-        <v>18287.27037</v>
+        <v>18475.28323</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>27660.68361</v>
+        <v>27730.74955</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>32288.21388</v>
+        <v>32288.84769</v>
       </c>
       <c r="K6" s="23" t="n">
         <v>46329.53546</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>45915.97435</v>
+        <v>45963.08078</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>69008.07501</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>69365.79922999999</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>112749.996</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>8569.843199999999</v>
@@ -1570,32 +1030,37 @@
         <v>11267.27098</v>
       </c>
       <c r="G7" s="22" t="n">
-        <v>10719.6424</v>
+        <v>11067.78984</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>8960.511100000002</v>
+        <v>9105.32192</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>13409.13408</v>
+        <v>13528.14673</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>9911.24352</v>
+        <v>9911.82711</v>
       </c>
       <c r="K7" s="22" t="n">
         <v>11260.03867</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>14181.07093</v>
+        <v>14194.53702</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>16869.39304</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>17050.38052</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>22891.281</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>28108.50096</v>
@@ -1630,18 +1095,23 @@
       <c r="M8" s="22" t="n">
         <v>18491.74581</v>
       </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+      <c r="N8" s="22" t="n">
+        <v>19019.119</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
-        <v>35380.26934000001</v>
+        <v>35380.26934</v>
       </c>
       <c r="D9" s="22" t="n">
-        <v>69628.72762000001</v>
+        <v>69628.72761999999</v>
       </c>
       <c r="E9" s="22" t="n">
         <v>86891.75903999999</v>
@@ -1650,35 +1120,40 @@
         <v>42130.4048</v>
       </c>
       <c r="G9" s="22" t="n">
-        <v>41035.44630999999</v>
+        <v>41111.12865999999</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>11309.25732</v>
+        <v>11352.45936</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>16153.60303</v>
+        <v>16153.73032</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>17927.97128</v>
+        <v>17928.0215</v>
       </c>
       <c r="K9" s="22" t="n">
         <v>29685.36535</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>24527.51308</v>
+        <v>24561.15342</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>42376.96094</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>42553.69768</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>78951.776</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
-        <v>6029.820909999999</v>
+        <v>6029.82091</v>
       </c>
       <c r="D10" s="22" t="n">
         <v>10979.72377</v>
@@ -1690,19 +1165,19 @@
         <v>12566.05963</v>
       </c>
       <c r="G10" s="22" t="n">
-        <v>8860.58253</v>
+        <v>8860.582530000001</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>5375.92924</v>
       </c>
       <c r="I10" s="22" t="n">
-        <v>7890.28236</v>
+        <v>7939.356360000001</v>
       </c>
       <c r="J10" s="21" t="n">
         <v>6245.07412</v>
       </c>
       <c r="K10" s="22" t="n">
-        <v>6787.965049999999</v>
+        <v>6787.96505</v>
       </c>
       <c r="L10" s="22" t="n">
         <v>6975.291450000001</v>
@@ -1710,12 +1185,17 @@
       <c r="M10" s="22" t="n">
         <v>8912.013489999999</v>
       </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+      <c r="N10" s="22" t="n">
+        <v>8554.950999999999</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>169.2845</v>
@@ -1730,7 +1210,7 @@
         <v>2034.22285</v>
       </c>
       <c r="G11" s="22" t="n">
-        <v>4600.14412</v>
+        <v>4607.39412</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>93.96464</v>
@@ -1750,12 +1230,17 @@
       <c r="M11" s="22" t="n">
         <v>181.98871</v>
       </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+      <c r="N11" s="22" t="n">
+        <v>442.771</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>8138.448409999999</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>283.79182</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>688.3630000000001</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>79.45429</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>200.05366</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>45.609</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>7568.235519999999</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>370.15923</v>
@@ -1924,7 +1429,7 @@
         <v>167.13374</v>
       </c>
       <c r="E16" s="22" t="n">
-        <v>282.9087699999999</v>
+        <v>282.90877</v>
       </c>
       <c r="F16" s="21" t="n">
         <v>134.576</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>204.33753</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>642.754</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,12 +1500,17 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>108543.72007</v>
@@ -2010,32 +1525,37 @@
         <v>182682.21803</v>
       </c>
       <c r="G18" s="23" t="n">
-        <v>136008.10911</v>
+        <v>144679.52703</v>
       </c>
       <c r="H18" s="33" t="n">
-        <v>35911.17623999999</v>
+        <v>35918.25624</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>37496.67392</v>
+        <v>37548.31418</v>
       </c>
       <c r="J18" s="33" t="n">
-        <v>46800.29829999999</v>
+        <v>46800.2983</v>
       </c>
       <c r="K18" s="23" t="n">
-        <v>69889.41001000001</v>
+        <v>69889.41000999999</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>75322.70619</v>
+        <v>75360.63894</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>97453.85074000001</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>99168.44819</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>126020.655</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>82022.95767</v>
@@ -2050,13 +1570,13 @@
         <v>128044.08</v>
       </c>
       <c r="G19" s="22" t="n">
-        <v>96721.00356999999</v>
+        <v>99360.64840000001</v>
       </c>
       <c r="H19" s="21" t="n">
-        <v>33716.35192</v>
+        <v>33723.43192</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>34806.38213</v>
+        <v>34858.02239</v>
       </c>
       <c r="J19" s="21" t="n">
         <v>44652.48103</v>
@@ -2065,17 +1585,22 @@
         <v>65247.28214</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>70605.49751</v>
+        <v>70643.43025999999</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>89671.24219999999</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>91271.01772999999</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>115608.423</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>21109.63919</v>
@@ -2090,7 +1615,7 @@
         <v>48961.16130000001</v>
       </c>
       <c r="G20" s="22" t="n">
-        <v>37146.14388</v>
+        <v>43158.81291</v>
       </c>
       <c r="H20" s="21" t="n">
         <v>1124.91343</v>
@@ -2108,14 +1633,19 @@
         <v>1803.23072</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>1749.11437</v>
-      </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+        <v>1838.11437</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>4800.863</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>1.18405</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>227.42776</v>
@@ -2210,7 +1750,7 @@
         <v>1113.00191</v>
       </c>
       <c r="G23" s="22" t="n">
-        <v>625.79509</v>
+        <v>626.6050900000001</v>
       </c>
       <c r="H23" s="21" t="n">
         <v>354.53906</v>
@@ -2228,20 +1768,25 @@
         <v>1682.14811</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>4734.641769999999</v>
-      </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+        <v>4742.141769999999</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>4720.887</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>4439.73778</v>
       </c>
       <c r="D24" s="22" t="n">
-        <v>7010.54922</v>
+        <v>7010.549220000001</v>
       </c>
       <c r="E24" s="22" t="n">
         <v>8933.125259999999</v>
@@ -2256,7 +1801,7 @@
         <v>618.9879</v>
       </c>
       <c r="I24" s="22" t="n">
-        <v>738.01885</v>
+        <v>738.0188499999999</v>
       </c>
       <c r="J24" s="21" t="n">
         <v>202.22442</v>
@@ -2268,14 +1813,19 @@
         <v>255.96706</v>
       </c>
       <c r="M24" s="22" t="n">
-        <v>177.33805</v>
-      </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+        <v>195.65997</v>
+      </c>
+      <c r="N24" s="22" t="n">
+        <v>601.317</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>3239.54251</v>
@@ -2290,7 +1840,7 @@
         <v>6081.19358</v>
       </c>
       <c r="G25" s="22" t="n">
-        <v>5597.52319</v>
+        <v>6154.491140000001</v>
       </c>
       <c r="H25" s="21" t="n">
         <v>1125.49373</v>
@@ -2310,12 +1860,17 @@
       <c r="M25" s="22" t="n">
         <v>2950.36478</v>
       </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+      <c r="N25" s="22" t="n">
+        <v>1626.194</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>2494.40079</v>
@@ -2330,7 +1885,7 @@
         <v>4737.75668</v>
       </c>
       <c r="G26" s="22" t="n">
-        <v>5056.96492</v>
+        <v>5595.63881</v>
       </c>
       <c r="H26" s="21" t="n">
         <v>1029.1098</v>
@@ -2350,12 +1905,17 @@
       <c r="M26" s="22" t="n">
         <v>1828.85043</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>1337.029</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>11711.40857</v>
@@ -2370,13 +1930,13 @@
         <v>11597.30626</v>
       </c>
       <c r="G27" s="23" t="n">
-        <v>11663.41219</v>
+        <v>11814.78704</v>
       </c>
       <c r="H27" s="33" t="n">
-        <v>8376.966069999999</v>
+        <v>8404.96918</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>12976.12975</v>
+        <v>12976.16566</v>
       </c>
       <c r="J27" s="33" t="n">
         <v>10621.81354</v>
@@ -2385,20 +1945,25 @@
         <v>14768.05553</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>13607.33949</v>
+        <v>13607.79612</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>19159.92147</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>19967.39235</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>22423.499</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
-        <v>8956.77965</v>
+        <v>8956.779649999999</v>
       </c>
       <c r="D28" s="22" t="n">
         <v>5775.11676</v>
@@ -2413,10 +1978,10 @@
         <v>4136.22436</v>
       </c>
       <c r="H28" s="21" t="n">
-        <v>4344.18639</v>
+        <v>4344.186390000001</v>
       </c>
       <c r="I28" s="22" t="n">
-        <v>7267.02339</v>
+        <v>7267.023389999999</v>
       </c>
       <c r="J28" s="21" t="n">
         <v>6533.43887</v>
@@ -2428,14 +1993,19 @@
         <v>8691.87974</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>9505.10591</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>10296.11745</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>15605.566</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>10.8107</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>3777.43813</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>1865.196</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>32</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>794.36333</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>369.139</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>21.38658</v>
@@ -2550,33 +2130,38 @@
       <c r="M31" s="22" t="n">
         <v>4.3</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>2663.48127</v>
       </c>
       <c r="D32" s="22" t="n">
-        <v>4181.087300000001</v>
+        <v>4181.0873</v>
       </c>
       <c r="E32" s="22" t="n">
-        <v>8045.316209999999</v>
+        <v>8045.316210000001</v>
       </c>
       <c r="F32" s="21" t="n">
         <v>7440.67125</v>
       </c>
       <c r="G32" s="22" t="n">
-        <v>6862.38612</v>
+        <v>7013.760969999999</v>
       </c>
       <c r="H32" s="21" t="n">
-        <v>3338.73121</v>
+        <v>3366.73432</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>4983.662719999999</v>
+        <v>4983.69863</v>
       </c>
       <c r="J32" s="21" t="n">
         <v>3425.45696</v>
@@ -2585,17 +2170,22 @@
         <v>2536.02259</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>4112.89075</v>
+        <v>4113.34738</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>5078.7141</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>5095.17344</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>4579.298</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>26.95037</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>132061.86852</v>
@@ -2730,13 +2335,13 @@
         <v>136646.39087</v>
       </c>
       <c r="G36" s="23" t="n">
-        <v>151766.04527</v>
+        <v>154968.83847</v>
       </c>
       <c r="H36" s="33" t="n">
-        <v>31686.55616</v>
+        <v>31992.1359</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>50515.85776</v>
+        <v>50890.35051999999</v>
       </c>
       <c r="J36" s="33" t="n">
         <v>51530.04259</v>
@@ -2745,17 +2350,22 @@
         <v>71211.86272</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>70632.50509000001</v>
+        <v>70870.63566</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>83372.99802</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>83675.76984000001</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>106536.532</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>19143.77044</v>
@@ -2770,7 +2380,7 @@
         <v>32306.1233</v>
       </c>
       <c r="G37" s="22" t="n">
-        <v>19443.51966</v>
+        <v>21034.54574</v>
       </c>
       <c r="H37" s="21" t="n">
         <v>2390.51102</v>
@@ -2788,20 +2398,25 @@
         <v>4546.08689</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>12640.18724</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>12644.71571</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>10843.611</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>56458.28775</v>
       </c>
       <c r="D38" s="22" t="n">
-        <v>20200.64032</v>
+        <v>20200.64031999999</v>
       </c>
       <c r="E38" s="22" t="n">
         <v>20090.82108</v>
@@ -2810,7 +2425,7 @@
         <v>33982.69734000001</v>
       </c>
       <c r="G38" s="22" t="n">
-        <v>31292.59778</v>
+        <v>32705.78977</v>
       </c>
       <c r="H38" s="21" t="n">
         <v>657.28399</v>
@@ -2825,17 +2440,22 @@
         <v>4101.40453</v>
       </c>
       <c r="L38" s="22" t="n">
-        <v>4616.28937</v>
+        <v>4626.91737</v>
       </c>
       <c r="M38" s="22" t="n">
-        <v>4002.54281</v>
-      </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+        <v>4006.41281</v>
+      </c>
+      <c r="N38" s="22" t="n">
+        <v>12750.87</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>10020.03498</v>
@@ -2853,7 +2473,7 @@
         <v>27451.75071</v>
       </c>
       <c r="H39" s="21" t="n">
-        <v>1879.40937</v>
+        <v>1887.40937</v>
       </c>
       <c r="I39" s="22" t="n">
         <v>2507.19199</v>
@@ -2870,12 +2490,17 @@
       <c r="M39" s="22" t="n">
         <v>3209.92202</v>
       </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+      <c r="N39" s="22" t="n">
+        <v>3206.174</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>26839.97906</v>
@@ -2884,19 +2509,19 @@
         <v>30874.90537</v>
       </c>
       <c r="E40" s="22" t="n">
-        <v>41158.95790000001</v>
+        <v>41158.9579</v>
       </c>
       <c r="F40" s="21" t="n">
-        <v>42538.65953999999</v>
+        <v>42538.65954</v>
       </c>
       <c r="G40" s="22" t="n">
         <v>52648.50191</v>
       </c>
       <c r="H40" s="21" t="n">
-        <v>20681.95464</v>
+        <v>20698.45464</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>31440.2797</v>
+        <v>31814.77246</v>
       </c>
       <c r="J40" s="21" t="n">
         <v>31347.44489</v>
@@ -2905,17 +2530,22 @@
         <v>39611.24483</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>43820.88259</v>
+        <v>44016.73516</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>48893.21887999999</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>49125.53298</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>56137.219</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>1253.02793</v>
@@ -2924,16 +2554,16 @@
         <v>1005.255</v>
       </c>
       <c r="E41" s="22" t="n">
-        <v>878.35834</v>
+        <v>878.3583400000001</v>
       </c>
       <c r="F41" s="21" t="n">
         <v>1300.15279</v>
       </c>
       <c r="G41" s="22" t="n">
-        <v>3315.611840000001</v>
+        <v>3492.46515</v>
       </c>
       <c r="H41" s="21" t="n">
-        <v>1152.12257</v>
+        <v>1433.20231</v>
       </c>
       <c r="I41" s="22" t="n">
         <v>1327.31513</v>
@@ -2948,14 +2578,19 @@
         <v>866.33884</v>
       </c>
       <c r="M41" s="22" t="n">
-        <v>1016.14601</v>
-      </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+        <v>1016.40025</v>
+      </c>
+      <c r="N41" s="22" t="n">
+        <v>1584.645</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>18346.76836</v>
@@ -3010,13 +2650,13 @@
         <v>16503.94035</v>
       </c>
       <c r="G43" s="22" t="n">
-        <v>17614.06337</v>
+        <v>17635.78519</v>
       </c>
       <c r="H43" s="21" t="n">
         <v>4925.27457</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>9584.939620000001</v>
+        <v>9584.939619999999</v>
       </c>
       <c r="J43" s="21" t="n">
         <v>8147.40024</v>
@@ -3025,17 +2665,22 @@
         <v>15267.18305</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>14591.94669</v>
+        <v>14623.59669</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>13610.98106</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>13672.78607</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>22014.013</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>106.58357</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>674.26126</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>57.25957</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>674.26126</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>34.314</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>15.01</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>936.92486</v>
@@ -3213,29 +2878,34 @@
         <v>3363.6229</v>
       </c>
       <c r="H48" s="45" t="n">
-        <v>817.0499500000001</v>
+        <v>828.7685600000001</v>
       </c>
       <c r="I48" s="46" t="n">
         <v>1280.64386</v>
       </c>
       <c r="J48" s="45" t="n">
-        <v>618.7206900000001</v>
+        <v>618.72069</v>
       </c>
       <c r="K48" s="46" t="n">
         <v>1106.10616</v>
       </c>
       <c r="L48" s="46" t="n">
-        <v>2109.92638</v>
+        <v>2143.12638</v>
       </c>
       <c r="M48" s="46" t="n">
         <v>3308.02289</v>
       </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+      <c r="N48" s="46" t="n">
+        <v>3350.289</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>871.94148</v>
@@ -3244,7 +2914,7 @@
         <v>579.2774899999999</v>
       </c>
       <c r="E49" s="22" t="n">
-        <v>726.4196899999999</v>
+        <v>726.4196900000001</v>
       </c>
       <c r="F49" s="21" t="n">
         <v>899.17175</v>
@@ -3253,38 +2923,43 @@
         <v>3286.25918</v>
       </c>
       <c r="H49" s="21" t="n">
-        <v>817.0499500000001</v>
+        <v>828.7685600000001</v>
       </c>
       <c r="I49" s="22" t="n">
         <v>1280.64386</v>
       </c>
       <c r="J49" s="21" t="n">
-        <v>618.7206900000001</v>
+        <v>618.72069</v>
       </c>
       <c r="K49" s="22" t="n">
         <v>1106.10616</v>
       </c>
       <c r="L49" s="22" t="n">
-        <v>2109.92638</v>
+        <v>2143.12638</v>
       </c>
       <c r="M49" s="22" t="n">
         <v>3307.30058</v>
       </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+      <c r="N49" s="22" t="n">
+        <v>3349.677</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
-        <v>64.98338</v>
+        <v>64.98338000000001</v>
       </c>
       <c r="D50" s="22" t="n">
-        <v>554.5319800000001</v>
+        <v>554.53198</v>
       </c>
       <c r="E50" s="22" t="n">
-        <v>471.0514499999999</v>
+        <v>471.05145</v>
       </c>
       <c r="F50" s="21" t="n">
         <v>603.8039199999999</v>
@@ -3310,12 +2985,17 @@
       <c r="M50" s="22" t="n">
         <v>0.7223099999999999</v>
       </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+      <c r="N50" s="22" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>45220.83128</v>
@@ -3330,32 +3010,37 @@
         <v>29456.35821</v>
       </c>
       <c r="G51" s="46" t="n">
-        <v>22698.55945</v>
+        <v>23694.52965</v>
       </c>
       <c r="H51" s="45" t="n">
-        <v>9077.366169999999</v>
+        <v>9092.805969999999</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>8467.171420000001</v>
+        <v>8468.747469999998</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>9703.046770000001</v>
+        <v>9703.046769999999</v>
       </c>
       <c r="K51" s="46" t="n">
         <v>12068.09073</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>15789.64432</v>
+        <v>15849.45805</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>20102.90119</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>20296.32252</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>25403.132</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>19029.74327</v>
@@ -3367,16 +3052,16 @@
         <v>25003.64521</v>
       </c>
       <c r="F52" s="21" t="n">
-        <v>24282.73841000001</v>
+        <v>24282.73841</v>
       </c>
       <c r="G52" s="22" t="n">
-        <v>17172.11399</v>
+        <v>18156.81057</v>
       </c>
       <c r="H52" s="21" t="n">
-        <v>6673.28779</v>
+        <v>6682.33108</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>5544.56215</v>
+        <v>5546.1382</v>
       </c>
       <c r="J52" s="21" t="n">
         <v>5276.91727</v>
@@ -3385,17 +3070,22 @@
         <v>7373.34459</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>7914.27144</v>
+        <v>7929.938859999999</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>9498.11594</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>9688.07122</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>12468.448</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>999.3220700000001</v>
@@ -3407,7 +3097,7 @@
         <v>355.25225</v>
       </c>
       <c r="F53" s="21" t="n">
-        <v>733.4865099999998</v>
+        <v>733.48651</v>
       </c>
       <c r="G53" s="22" t="n">
         <v>250.53817</v>
@@ -3416,7 +3106,7 @@
         <v>276.6072</v>
       </c>
       <c r="I53" s="22" t="n">
-        <v>900.80134</v>
+        <v>900.8013400000001</v>
       </c>
       <c r="J53" s="21" t="n">
         <v>419.25538</v>
@@ -3425,29 +3115,34 @@
         <v>444.2030999999999</v>
       </c>
       <c r="L53" s="22" t="n">
-        <v>925.3935700000001</v>
+        <v>967.9938000000001</v>
       </c>
       <c r="M53" s="22" t="n">
         <v>395.49264</v>
       </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+      <c r="N53" s="22" t="n">
+        <v>2106.007</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>14.53105</v>
       </c>
       <c r="D54" s="22" t="n">
-        <v>8.610439999999999</v>
+        <v>8.610440000000001</v>
       </c>
       <c r="E54" s="22" t="n">
         <v>131.05189</v>
       </c>
       <c r="F54" s="21" t="n">
-        <v>751.2800900000001</v>
+        <v>751.28009</v>
       </c>
       <c r="G54" s="22" t="n">
         <v>452.4515</v>
@@ -3465,17 +3160,22 @@
         <v>1083.60943</v>
       </c>
       <c r="L54" s="22" t="n">
-        <v>2507.29519</v>
+        <v>2508.77487</v>
       </c>
       <c r="M54" s="22" t="n">
         <v>4401.70258</v>
       </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+      <c r="N54" s="22" t="n">
+        <v>4681.995</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>24102.1711</v>
@@ -3487,13 +3187,13 @@
         <v>2153.279</v>
       </c>
       <c r="F55" s="21" t="n">
-        <v>2403.69763</v>
+        <v>2403.697630000001</v>
       </c>
       <c r="G55" s="22" t="n">
-        <v>2836.02618</v>
+        <v>2837.96813</v>
       </c>
       <c r="H55" s="21" t="n">
-        <v>409.3573299999999</v>
+        <v>415.75384</v>
       </c>
       <c r="I55" s="22" t="n">
         <v>469.95357</v>
@@ -3505,17 +3205,22 @@
         <v>434.84839</v>
       </c>
       <c r="L55" s="22" t="n">
-        <v>1030.5436</v>
+        <v>1030.61</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>1497.64098</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>1501.10703</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>2383.09</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>1000.02023</v>
@@ -3530,7 +3235,7 @@
         <v>1215.05524</v>
       </c>
       <c r="G56" s="22" t="n">
-        <v>1856.03003</v>
+        <v>1857.92498</v>
       </c>
       <c r="H56" s="21" t="n">
         <v>1217.45618</v>
@@ -3542,7 +3247,7 @@
         <v>2947.72158</v>
       </c>
       <c r="K56" s="22" t="n">
-        <v>2491.867229999999</v>
+        <v>2491.86723</v>
       </c>
       <c r="L56" s="22" t="n">
         <v>3061.76226</v>
@@ -3550,27 +3255,32 @@
       <c r="M56" s="22" t="n">
         <v>4093.46305</v>
       </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+      <c r="N56" s="22" t="n">
+        <v>3614.595</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>67.55296000000001</v>
       </c>
       <c r="D57" s="22" t="n">
-        <v>53.97525999999999</v>
+        <v>53.97526</v>
       </c>
       <c r="E57" s="22" t="n">
         <v>57.41419999999999</v>
       </c>
       <c r="F57" s="21" t="n">
-        <v>69.93323999999998</v>
+        <v>69.93324000000001</v>
       </c>
       <c r="G57" s="22" t="n">
-        <v>114.29045</v>
+        <v>121.72717</v>
       </c>
       <c r="H57" s="21" t="n">
         <v>67.00069999999999</v>
@@ -3590,12 +3300,17 @@
       <c r="M57" s="22" t="n">
         <v>74.87362999999999</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>7.385</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>1e-05</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>1e-05</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>7.49059</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>141.61236</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>141.612</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>237201.93642</v>
@@ -3729,13 +3459,13 @@
         <v>150484.4486</v>
       </c>
       <c r="G61" s="36" t="n">
-        <v>119637.83816</v>
+        <v>123400.82588</v>
       </c>
       <c r="H61" s="37" t="n">
-        <v>59774.71267</v>
+        <v>59866.24942</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>53322.32871</v>
+        <v>53390.11023999999</v>
       </c>
       <c r="J61" s="37" t="n">
         <v>58941.5187</v>
@@ -3744,17 +3474,22 @@
         <v>79143.44339</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>82518.41750999998</v>
+        <v>82659.86864</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>89513.41776</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>91010.89096</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>105735.712</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>2029.3247</v>
@@ -3769,13 +3504,13 @@
         <v>1915.44487</v>
       </c>
       <c r="G62" s="36" t="n">
-        <v>3669.46288</v>
+        <v>3670.36288</v>
       </c>
       <c r="H62" s="37" t="n">
         <v>4776.09402</v>
       </c>
       <c r="I62" s="36" t="n">
-        <v>5117.633059999999</v>
+        <v>5117.63306</v>
       </c>
       <c r="J62" s="37" t="n">
         <v>4898.92413</v>
@@ -3789,12 +3524,17 @@
       <c r="M62" s="36" t="n">
         <v>4470.51746</v>
       </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+      <c r="N62" s="36" t="n">
+        <v>2590.306</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>1518.22462</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>2782.62604</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>2100.617</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>440.1428</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>1552.543</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>52.543</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,12 +3704,17 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>70.95728</v>
@@ -3969,7 +3729,7 @@
         <v>113.47849</v>
       </c>
       <c r="G67" s="22" t="n">
-        <v>63.15024</v>
+        <v>64.05024</v>
       </c>
       <c r="H67" s="21" t="n">
         <v>154.59806</v>
@@ -3989,12 +3749,17 @@
       <c r="M67" s="22" t="n">
         <v>135.34842</v>
       </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+      <c r="N67" s="22" t="n">
+        <v>437.146</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>5698.370269999999</v>
@@ -4043,7 +3813,7 @@
         <v>5006.28722</v>
       </c>
       <c r="E69" s="36" t="n">
-        <v>4965.69365</v>
+        <v>4965.693649999999</v>
       </c>
       <c r="F69" s="37" t="n">
         <v>2842.53634</v>
@@ -4069,12 +3839,17 @@
       <c r="M69" s="36" t="n">
         <v>6931.58887</v>
       </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+      <c r="N69" s="36" t="n">
+        <v>5797.601</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>5610.85983</v>
@@ -4109,12 +3884,17 @@
       <c r="M70" s="22" t="n">
         <v>3583.31097</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>5115.644</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>12.64555</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>72.68328</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>36.497</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>100.32599</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>20.59678</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>74.86489</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>3154.67185</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>645.46</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>108098.4654</v>
@@ -4369,7 +4179,7 @@
         <v>143.26368</v>
       </c>
       <c r="G77" s="23" t="n">
-        <v>124.12596</v>
+        <v>127.0284</v>
       </c>
       <c r="H77" s="33" t="n">
         <v>63.10634</v>
@@ -4389,12 +4199,17 @@
       <c r="M77" s="23" t="n">
         <v>60.03921</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>58.865</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>0</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>10.7</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>203.2954</v>
@@ -4489,7 +4314,7 @@
         <v>35.39984</v>
       </c>
       <c r="G80" s="22" t="n">
-        <v>91.78929999999998</v>
+        <v>94.69174</v>
       </c>
       <c r="H80" s="21" t="n">
         <v>38.68634</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>59.67451</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>58.01</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>104.33</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>10.7803</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>107999.5</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>0.42</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0.025</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,12 +4649,17 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>113646.5519</v>
@@ -4809,13 +4674,13 @@
         <v>133164.26023</v>
       </c>
       <c r="G88" s="23" t="n">
-        <v>101552.46539</v>
+        <v>105227.00372</v>
       </c>
       <c r="H88" s="33" t="n">
-        <v>45468.90132</v>
+        <v>45544.39187</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>39463.82997999999</v>
+        <v>39531.61151</v>
       </c>
       <c r="J88" s="33" t="n">
         <v>44664.63569</v>
@@ -4824,17 +4689,22 @@
         <v>58812.18876</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>60360.60743</v>
+        <v>60483.11298000001</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>64717.86386</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>66203.87737999999</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>79745.88499999999</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>10614.19713</v>
@@ -4869,12 +4739,17 @@
       <c r="M89" s="22" t="n">
         <v>5311.4393</v>
       </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+      <c r="N89" s="22" t="n">
+        <v>6464.875</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>14909.10727</v>
@@ -4889,7 +4764,7 @@
         <v>16768.07852</v>
       </c>
       <c r="G90" s="22" t="n">
-        <v>27518.27286</v>
+        <v>28074.27822</v>
       </c>
       <c r="H90" s="21" t="n">
         <v>7121.9235</v>
@@ -4898,7 +4773,7 @@
         <v>7112.9328</v>
       </c>
       <c r="J90" s="21" t="n">
-        <v>6804.88486</v>
+        <v>6804.884859999999</v>
       </c>
       <c r="K90" s="22" t="n">
         <v>7025.358179999999</v>
@@ -4909,12 +4784,17 @@
       <c r="M90" s="22" t="n">
         <v>7763.91232</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>7801.629</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>44970.44326000001</v>
@@ -4929,7 +4809,7 @@
         <v>36197.76789</v>
       </c>
       <c r="G91" s="22" t="n">
-        <v>25734.22854</v>
+        <v>26098.0266</v>
       </c>
       <c r="H91" s="21" t="n">
         <v>5237.797550000001</v>
@@ -4949,12 +4829,17 @@
       <c r="M91" s="22" t="n">
         <v>13122.77309</v>
       </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+      <c r="N91" s="22" t="n">
+        <v>16086.109</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>267104.26957</v>
@@ -4963,22 +4848,22 @@
         <v>56448.43309999999</v>
       </c>
       <c r="E92" s="22" t="n">
-        <v>72367.79517999999</v>
+        <v>72367.79518</v>
       </c>
       <c r="F92" s="21" t="n">
         <v>77427.18415999999</v>
       </c>
       <c r="G92" s="22" t="n">
-        <v>53496.56352</v>
+        <v>59051.94912999999</v>
       </c>
       <c r="H92" s="21" t="n">
-        <v>6868.67809</v>
+        <v>6868.678089999999</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>8182.083619999999</v>
+        <v>8182.08362</v>
       </c>
       <c r="J92" s="21" t="n">
-        <v>9608.54888</v>
+        <v>9608.548879999998</v>
       </c>
       <c r="K92" s="22" t="n">
         <v>14278.98515</v>
@@ -4987,14 +4872,19 @@
         <v>12175.09008</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>12266.58827</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>12378.13827</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>12081.093</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>21591.15014</v>
@@ -5009,13 +4899,13 @@
         <v>33010.14842</v>
       </c>
       <c r="G93" s="22" t="n">
-        <v>25974.06906</v>
+        <v>26012.9528</v>
       </c>
       <c r="H93" s="21" t="n">
-        <v>22384.85967</v>
+        <v>22457.99372</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>24096.63582</v>
+        <v>24179.01</v>
       </c>
       <c r="J93" s="21" t="n">
         <v>28411.70877</v>
@@ -5024,17 +4914,22 @@
         <v>30884.46912</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>31770.16459</v>
+        <v>31813.2141</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>32888.48469</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>34071.68665</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>42906.876</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>13647.41547</v>
@@ -5049,47 +4944,52 @@
         <v>20124.91693</v>
       </c>
       <c r="G94" s="22" t="n">
-        <v>14319.33705</v>
+        <v>14566.67423</v>
       </c>
       <c r="H94" s="21" t="n">
-        <v>5225.23425</v>
+        <v>5242.183400000001</v>
       </c>
       <c r="I94" s="22" t="n">
         <v>5249.27096</v>
       </c>
       <c r="J94" s="21" t="n">
-        <v>5611.473190000001</v>
+        <v>5611.47319</v>
       </c>
       <c r="K94" s="22" t="n">
         <v>8178.572510000001</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>10147.12097</v>
+        <v>10206.05077</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>11540.31048</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>11764.28248</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>13707.686</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>767.56511</v>
       </c>
       <c r="D95" s="22" t="n">
-        <v>794.3265499999999</v>
+        <v>794.32655</v>
       </c>
       <c r="E95" s="22" t="n">
         <v>905.7234800000001</v>
       </c>
       <c r="F95" s="21" t="n">
-        <v>669.1990999999999</v>
+        <v>669.1991</v>
       </c>
       <c r="G95" s="22" t="n">
-        <v>989.9561499999999</v>
+        <v>989.95615</v>
       </c>
       <c r="H95" s="21" t="n">
         <v>244.75847</v>
@@ -5109,18 +5009,23 @@
       <c r="M95" s="22" t="n">
         <v>110.15488</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>118.693</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>276810.06384</v>
       </c>
       <c r="D96" s="22" t="n">
-        <v>67746.49166999999</v>
+        <v>67746.49167</v>
       </c>
       <c r="E96" s="22" t="n">
         <v>82726.73169</v>
@@ -5129,13 +5034,13 @@
         <v>81551.36532</v>
       </c>
       <c r="G96" s="22" t="n">
-        <v>68576.76329</v>
+        <v>71663.63490999999</v>
       </c>
       <c r="H96" s="21" t="n">
-        <v>16701.37846</v>
+        <v>16715.97111</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>17694.49353</v>
+        <v>17709.08618</v>
       </c>
       <c r="J96" s="21" t="n">
         <v>19653.17311</v>
@@ -5144,17 +5049,22 @@
         <v>22985.86313</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>23564.76294</v>
+        <v>23567.6689</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>24946.69292</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>25091.18374</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>26553.302</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>16519.15222</v>
@@ -5184,17 +5094,22 @@
         <v>3277.09198</v>
       </c>
       <c r="L97" s="22" t="n">
-        <v>4103.47986</v>
+        <v>4126.912060000001</v>
       </c>
       <c r="M97" s="22" t="n">
-        <v>5234.32059</v>
-      </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+        <v>5346.10097</v>
+      </c>
+      <c r="N97" s="22" t="n">
+        <v>6520.499</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>333.31557</v>
@@ -5206,7 +5121,7 @@
         <v>411.82989</v>
       </c>
       <c r="F98" s="21" t="n">
-        <v>2592.89385</v>
+        <v>2592.893849999999</v>
       </c>
       <c r="G98" s="22" t="n">
         <v>277.2710300000001</v>
@@ -5229,12 +5144,17 @@
       <c r="M98" s="22" t="n">
         <v>1426.57316</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>611.727</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>5976.25974</v>
@@ -5249,7 +5169,7 @@
         <v>8878.94102</v>
       </c>
       <c r="G99" s="23" t="n">
-        <v>8188.92731</v>
+        <v>8196.54327</v>
       </c>
       <c r="H99" s="33" t="n">
         <v>3223.53034</v>
@@ -5264,17 +5184,22 @@
         <v>3780.45638</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>3846.17518</v>
+        <v>3847.92798</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>4502.51168</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>4511.525479999999</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>7261.784</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>3248.76076</v>
@@ -5289,7 +5214,7 @@
         <v>5473.304389999999</v>
       </c>
       <c r="G100" s="22" t="n">
-        <v>5286.499120000001</v>
+        <v>5286.499119999999</v>
       </c>
       <c r="H100" s="21" t="n">
         <v>3065.26485</v>
@@ -5309,12 +5234,17 @@
       <c r="M100" s="22" t="n">
         <v>3597.02295</v>
       </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+      <c r="N100" s="22" t="n">
+        <v>6652.231</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>735.424</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>67.797</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>172.05743</v>
@@ -5369,7 +5304,7 @@
         <v>181.86257</v>
       </c>
       <c r="G102" s="22" t="n">
-        <v>154.18204</v>
+        <v>156.46436</v>
       </c>
       <c r="H102" s="21" t="n">
         <v>115.64563</v>
@@ -5384,17 +5319,22 @@
         <v>169.73185</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>173.41186</v>
+        <v>175.16466</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>181.02489</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>190.29818</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>197.181</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>358.482</v>
@@ -5406,7 +5346,7 @@
         <v>451.29544</v>
       </c>
       <c r="F103" s="21" t="n">
-        <v>679.06652</v>
+        <v>679.0665199999999</v>
       </c>
       <c r="G103" s="22" t="n">
         <v>1620.37613</v>
@@ -5429,27 +5369,32 @@
       <c r="M103" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
-        <v>4562.42564</v>
+        <v>4562.425639999999</v>
       </c>
       <c r="D104" s="22" t="n">
-        <v>5248.65369</v>
+        <v>5248.653689999999</v>
       </c>
       <c r="E104" s="22" t="n">
-        <v>6563.88899</v>
+        <v>6563.888989999999</v>
       </c>
       <c r="F104" s="21" t="n">
         <v>6474.63252</v>
       </c>
       <c r="G104" s="22" t="n">
-        <v>2529.21145</v>
+        <v>2531.1861</v>
       </c>
       <c r="H104" s="21" t="n">
         <v>248.15829</v>
@@ -5469,12 +5414,17 @@
       <c r="M104" s="22" t="n">
         <v>1078.10135</v>
       </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+      <c r="N104" s="22" t="n">
+        <v>1256.386</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>1043.80711</v>
@@ -5486,10 +5436,10 @@
         <v>402.3286</v>
       </c>
       <c r="F105" s="21" t="n">
-        <v>397.9640800000001</v>
+        <v>397.96408</v>
       </c>
       <c r="G105" s="22" t="n">
-        <v>195.26561</v>
+        <v>203.26561</v>
       </c>
       <c r="H105" s="21" t="n">
         <v>42.18847</v>
@@ -5509,27 +5459,32 @@
       <c r="M105" s="22" t="n">
         <v>9.6</v>
       </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+      <c r="N105" s="22" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
-        <v>4208.257699999999</v>
+        <v>4208.2577</v>
       </c>
       <c r="D106" s="22" t="n">
         <v>3876.22073</v>
       </c>
       <c r="E106" s="22" t="n">
-        <v>4352.876770000001</v>
+        <v>4352.87677</v>
       </c>
       <c r="F106" s="21" t="n">
         <v>5086.60256</v>
       </c>
       <c r="G106" s="22" t="n">
-        <v>2566.94279</v>
+        <v>2571.5838</v>
       </c>
       <c r="H106" s="21" t="n">
         <v>319.43158</v>
@@ -5538,23 +5493,28 @@
         <v>353.97006</v>
       </c>
       <c r="J106" s="21" t="n">
-        <v>416.7190400000001</v>
+        <v>416.71904</v>
       </c>
       <c r="K106" s="22" t="n">
-        <v>478.25067</v>
+        <v>478.2506699999999</v>
       </c>
       <c r="L106" s="22" t="n">
-        <v>503.5064400000001</v>
+        <v>503.50644</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>387.10588</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>387.36537</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>1012.179</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>63.5605</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>23.86837</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>18.868</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>30.54095</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>31.144</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>13.3</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>62.288</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>31.144</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>17.24095</v>
@@ -5829,12 +5819,17 @@
       <c r="M113" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>1547.85949</v>
@@ -5846,13 +5841,13 @@
         <v>3696.84373</v>
       </c>
       <c r="F114" s="33" t="n">
-        <v>3510.68206</v>
+        <v>3510.682060000001</v>
       </c>
       <c r="G114" s="23" t="n">
-        <v>1960.04431</v>
+        <v>2037.0753</v>
       </c>
       <c r="H114" s="33" t="n">
-        <v>2405.23733</v>
+        <v>2421.28353</v>
       </c>
       <c r="I114" s="23" t="n">
         <v>1988.42952</v>
@@ -5864,17 +5859,22 @@
         <v>4084.58849</v>
       </c>
       <c r="L114" s="23" t="n">
-        <v>3789.71172</v>
+        <v>3811.67225</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>7976.896360000001</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>7979.342239999999</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>9432.199000000001</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>1547.85949</v>
@@ -5886,13 +5886,13 @@
         <v>3696.84373</v>
       </c>
       <c r="F115" s="21" t="n">
-        <v>3510.68206</v>
+        <v>3510.682060000001</v>
       </c>
       <c r="G115" s="22" t="n">
-        <v>1960.04431</v>
+        <v>2037.0753</v>
       </c>
       <c r="H115" s="21" t="n">
-        <v>2405.23733</v>
+        <v>2421.28353</v>
       </c>
       <c r="I115" s="22" t="n">
         <v>1988.42952</v>
@@ -5904,17 +5904,22 @@
         <v>4084.58849</v>
       </c>
       <c r="L115" s="22" t="n">
-        <v>3789.71172</v>
+        <v>3811.67225</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>7964.780319999999</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>7967.2262</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>9420.083000000001</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>12.11604</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>12.116</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>174.56397</v>
@@ -5984,17 +5994,22 @@
         <v>518.07245</v>
       </c>
       <c r="L117" s="23" t="n">
-        <v>863.1756700000001</v>
+        <v>858.40792</v>
       </c>
       <c r="M117" s="23" t="n">
         <v>854.00032</v>
       </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+      <c r="N117" s="23" t="n">
+        <v>817.928</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>2.65216</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>105.14955</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>105.176</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>1.4406</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>206.67216</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>170.362</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>1.52166</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>2.56813</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>2.568</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>208.9748</v>
@@ -6224,17 +6264,22 @@
         <v>0</v>
       </c>
       <c r="L123" s="22" t="n">
-        <v>4.76775</v>
+        <v>0</v>
       </c>
       <c r="M123" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>40.02525</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6349,12 +6404,17 @@
       <c r="M126" s="22" t="n">
         <v>539.6104799999999</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>539.61</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>610119.7987899999</v>
@@ -6366,32 +6426,35 @@
         <v>627321.35706</v>
       </c>
       <c r="F127" s="33" t="n">
-        <v>610608.66107</v>
+        <v>610608.6610699999</v>
       </c>
       <c r="G127" s="23" t="n">
-        <v>523822.47767</v>
+        <v>541038.10135</v>
       </c>
       <c r="H127" s="33" t="n">
-        <v>168919.12394</v>
+        <v>169566.49481</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>199119.61747</v>
+        <v>199685.20992</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>212632.21945</v>
+        <v>212632.85326</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>295119.67009</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>306376.03906</v>
+        <v>306934.1303</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>382877.2401600001</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>387750.6990600001</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>502908.178</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>024-Support services to forestry</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,12 +6553,17 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>194016.18021</v>
@@ -6501,32 +6578,37 @@
         <v>305777.8145</v>
       </c>
       <c r="G132" s="23" t="n">
-        <v>249689.40421</v>
+        <v>268974.38825</v>
       </c>
       <c r="H132" s="33" t="n">
-        <v>82342.23062999999</v>
+        <v>82518.60837999999</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>108480.23705</v>
+        <v>109011.92353</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>113331.5532</v>
+        <v>113527.64921</v>
       </c>
       <c r="K132" s="23" t="n">
         <v>151120.64183</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>163895.58947</v>
+        <v>164482.33833</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>214844.9453</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>219020.71597</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>251564.944</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>25668.00564</v>
@@ -6538,19 +6620,19 @@
         <v>59199.25394</v>
       </c>
       <c r="F133" s="33" t="n">
-        <v>86423.48683000001</v>
+        <v>86423.48682999999</v>
       </c>
       <c r="G133" s="23" t="n">
-        <v>77281.40803000001</v>
+        <v>82276.87803000001</v>
       </c>
       <c r="H133" s="33" t="n">
-        <v>7455.42965</v>
+        <v>7554.341469999999</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>7767.11479</v>
+        <v>7934.67139</v>
       </c>
       <c r="J133" s="33" t="n">
-        <v>9271.892019999999</v>
+        <v>9271.89213</v>
       </c>
       <c r="K133" s="23" t="n">
         <v>11209.86327</v>
@@ -6561,12 +6643,17 @@
       <c r="M133" s="23" t="n">
         <v>23037.48385</v>
       </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+      <c r="N133" s="23" t="n">
+        <v>30291.558</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>23803.60698</v>
@@ -6581,16 +6668,16 @@
         <v>83679.53775</v>
       </c>
       <c r="G134" s="22" t="n">
-        <v>75460.16753999999</v>
+        <v>80455.63754</v>
       </c>
       <c r="H134" s="21" t="n">
-        <v>6662.68569</v>
+        <v>6761.59751</v>
       </c>
       <c r="I134" s="22" t="n">
-        <v>6742.990289999999</v>
+        <v>6910.546890000001</v>
       </c>
       <c r="J134" s="21" t="n">
-        <v>7860.468440000001</v>
+        <v>7860.46855</v>
       </c>
       <c r="K134" s="22" t="n">
         <v>9180.052250000001</v>
@@ -6601,12 +6688,17 @@
       <c r="M134" s="22" t="n">
         <v>21460.82986</v>
       </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+      <c r="N134" s="22" t="n">
+        <v>19590.692</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>650.90215</v>
@@ -6618,13 +6710,13 @@
         <v>831.9410300000001</v>
       </c>
       <c r="F135" s="21" t="n">
-        <v>901.9081200000002</v>
+        <v>901.9081199999999</v>
       </c>
       <c r="G135" s="22" t="n">
         <v>654.442</v>
       </c>
       <c r="H135" s="21" t="n">
-        <v>690.6444200000001</v>
+        <v>690.64442</v>
       </c>
       <c r="I135" s="22" t="n">
         <v>696.5475600000001</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>795.3344599999999</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>461.194</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>5.09271</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>151.13488</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>132.591</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>1175.42772</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>175.5122</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>178.096</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>7.841</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>35.3205</v>
@@ -6921,12 +7048,17 @@
       <c r="M142" s="22" t="n">
         <v>756.9422099999999</v>
       </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+      <c r="N142" s="22" t="n">
+        <v>10194.167</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>101353.43468</v>
@@ -6941,32 +7073,37 @@
         <v>146090.22612</v>
       </c>
       <c r="G143" s="46" t="n">
-        <v>88016.50379</v>
+        <v>101593.50755</v>
       </c>
       <c r="H143" s="45" t="n">
-        <v>38016.76997</v>
+        <v>38065.30311</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>46809.69726000001</v>
+        <v>47076.18769</v>
       </c>
       <c r="J143" s="45" t="n">
-        <v>56804.89061</v>
+        <v>56958.80431</v>
       </c>
       <c r="K143" s="46" t="n">
         <v>79038.69992</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>75079.28091</v>
+        <v>75241.10186</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>92154.53018</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>94936.60339000002</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>111819.597</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>73633.82738</v>
@@ -6981,32 +7118,37 @@
         <v>90926.01652</v>
       </c>
       <c r="G144" s="25" t="n">
-        <v>66065.19017</v>
+        <v>79153.8884</v>
       </c>
       <c r="H144" s="24" t="n">
-        <v>31817.13813</v>
+        <v>31865.67127</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>38736.48179999999</v>
+        <v>39002.97223000001</v>
       </c>
       <c r="J144" s="24" t="n">
-        <v>44760.6513</v>
+        <v>44914.565</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>66071.45256000001</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>66395.00285</v>
+        <v>66511.2239</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>76407.19832000001</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>79122.86953</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>97470.21000000001</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>12655.36147</v>
@@ -7018,13 +7160,13 @@
         <v>24732.66106</v>
       </c>
       <c r="F145" s="24" t="n">
-        <v>46109.04961</v>
+        <v>46109.04961000001</v>
       </c>
       <c r="G145" s="25" t="n">
-        <v>18799.21904</v>
+        <v>19287.52457</v>
       </c>
       <c r="H145" s="24" t="n">
-        <v>2519.373480000001</v>
+        <v>2519.37348</v>
       </c>
       <c r="I145" s="25" t="n">
         <v>4488.38051</v>
@@ -7039,14 +7181,19 @@
         <v>5540.490839999999</v>
       </c>
       <c r="M145" s="25" t="n">
-        <v>9302.090370000002</v>
-      </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+        <v>9329.367370000002</v>
+      </c>
+      <c r="N145" s="25" t="n">
+        <v>6511.225</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>711.5673999999999</v>
@@ -7121,12 +7273,17 @@
       <c r="M147" s="25" t="n">
         <v>5212.55992</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>5121.522</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>14352.67843</v>
@@ -7135,10 +7292,10 @@
         <v>3135.83547</v>
       </c>
       <c r="E148" s="25" t="n">
-        <v>5811.307859999999</v>
+        <v>5811.30786</v>
       </c>
       <c r="F148" s="24" t="n">
-        <v>7471.639630000001</v>
+        <v>7471.63963</v>
       </c>
       <c r="G148" s="25" t="n">
         <v>1869.23411</v>
@@ -7156,17 +7313,22 @@
         <v>699.20463</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>1084.0661</v>
+        <v>1129.666</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>1232.68157</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>1271.80657</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>2716.64</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>40824.53863</v>
@@ -7181,35 +7343,40 @@
         <v>33411.47686</v>
       </c>
       <c r="G149" s="23" t="n">
-        <v>17478.15052</v>
+        <v>17532.94226</v>
       </c>
       <c r="H149" s="33" t="n">
-        <v>18568.46326</v>
+        <v>18568.4635</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>21599.29029</v>
+        <v>21641.23904</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>18541.77131</v>
+        <v>18541.77132</v>
       </c>
       <c r="K149" s="23" t="n">
         <v>26651.32491</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>34631.26241</v>
+        <v>34809.04182999999</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>50145.663</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>50741.24816</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>49334.371</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
-        <v>35735.97393</v>
+        <v>35735.97393000001</v>
       </c>
       <c r="D150" s="22" t="n">
         <v>17508.24424</v>
@@ -7224,29 +7391,34 @@
         <v>14866.42977</v>
       </c>
       <c r="H150" s="21" t="n">
-        <v>16143.52636</v>
+        <v>16143.5266</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>19071.50003</v>
+        <v>19113.44878</v>
       </c>
       <c r="J150" s="21" t="n">
-        <v>15081.35812</v>
+        <v>15081.35813</v>
       </c>
       <c r="K150" s="22" t="n">
         <v>19380.32737</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>27072.67053</v>
+        <v>27236.28095</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>34113.09183</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>34704.02721</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>38109.862</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>33.3325</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>2035.91028</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>2059.218</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>17.30652</v>
@@ -7321,12 +7498,17 @@
       <c r="M152" s="22" t="n">
         <v>91.44239999999999</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>21.442</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>1454.00866</v>
@@ -7341,7 +7523,7 @@
         <v>1774.61052</v>
       </c>
       <c r="G153" s="22" t="n">
-        <v>1220.30271</v>
+        <v>1275.09445</v>
       </c>
       <c r="H153" s="21" t="n">
         <v>527.9973</v>
@@ -7359,20 +7541,25 @@
         <v>2116.17101</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>3371.05309</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>3375.37287</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>4080.182</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>3583.91702</v>
       </c>
       <c r="D154" s="22" t="n">
-        <v>3006.52154</v>
+        <v>3006.521540000001</v>
       </c>
       <c r="E154" s="22" t="n">
         <v>2286.85581</v>
@@ -7396,17 +7583,22 @@
         <v>3831.27112</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>3436.33819</v>
+        <v>3450.50719</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>10534.1654</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>10534.4954</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>5063.667</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,12 +7633,17 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>13304.261</v>
@@ -7461,7 +7658,7 @@
         <v>25763.08254</v>
       </c>
       <c r="G156" s="23" t="n">
-        <v>53023.95091</v>
+        <v>53585.31205</v>
       </c>
       <c r="H156" s="33" t="n">
         <v>6165.81918</v>
@@ -7476,17 +7673,22 @@
         <v>18934.80553</v>
       </c>
       <c r="L156" s="23" t="n">
-        <v>26189.56181</v>
+        <v>26191.71923</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>28764.95816</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>29112.92888</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>31477.663</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>12210.15217</v>
@@ -7501,7 +7703,7 @@
         <v>24964.8637</v>
       </c>
       <c r="G157" s="22" t="n">
-        <v>52007.05132000001</v>
+        <v>52423.43759</v>
       </c>
       <c r="H157" s="21" t="n">
         <v>5295.60205</v>
@@ -7516,17 +7718,22 @@
         <v>17275.35975</v>
       </c>
       <c r="L157" s="22" t="n">
-        <v>24742.75093</v>
+        <v>24744.90835</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>27307.02425</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>27654.99497</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>30140.89</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>1094.10883</v>
@@ -7541,7 +7748,7 @@
         <v>798.21884</v>
       </c>
       <c r="G158" s="22" t="n">
-        <v>1016.89959</v>
+        <v>1161.87446</v>
       </c>
       <c r="H158" s="21" t="n">
         <v>870.21713</v>
@@ -7561,12 +7768,17 @@
       <c r="M158" s="22" t="n">
         <v>1457.93391</v>
       </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+      <c r="N158" s="22" t="n">
+        <v>1336.773</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>220.36085</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>220.36085</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>10169.75432</v>
@@ -7701,72 +7928,82 @@
         <v>11263.7311</v>
       </c>
       <c r="G162" s="23" t="n">
-        <v>8400.85433</v>
+        <v>8491.336660000001</v>
       </c>
       <c r="H162" s="33" t="n">
-        <v>5908.68667</v>
+        <v>5936.15516</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>7508.863689999999</v>
+        <v>7564.55439</v>
       </c>
       <c r="J162" s="33" t="n">
-        <v>9065.09057</v>
+        <v>9107.27276</v>
       </c>
       <c r="K162" s="23" t="n">
         <v>12062.79908</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>11966.94976</v>
+        <v>11983.27434</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>17261.76633</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>17542.75339</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>20457.572</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>7121.19242</v>
       </c>
       <c r="D163" s="22" t="n">
-        <v>7374.93798</v>
+        <v>7374.937980000001</v>
       </c>
       <c r="E163" s="22" t="n">
-        <v>7347.50929</v>
+        <v>7347.509289999999</v>
       </c>
       <c r="F163" s="21" t="n">
-        <v>6489.834430000001</v>
+        <v>6489.83443</v>
       </c>
       <c r="G163" s="22" t="n">
-        <v>4966.911279999999</v>
+        <v>4995.564050000001</v>
       </c>
       <c r="H163" s="21" t="n">
-        <v>2826.6641</v>
+        <v>2844.3794</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>4112.80437</v>
+        <v>4115.07468</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>4174.56675</v>
+        <v>4193.29029</v>
       </c>
       <c r="K163" s="22" t="n">
-        <v>6698.96156</v>
+        <v>6698.961560000001</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>6501.46939</v>
+        <v>6510.93972</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>10600.56919</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>10775.43362</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>12705.293</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>2106.68836</v>
@@ -7781,32 +8018,37 @@
         <v>2429.5725</v>
       </c>
       <c r="G164" s="22" t="n">
-        <v>1845.18775</v>
+        <v>1907.01731</v>
       </c>
       <c r="H164" s="21" t="n">
-        <v>1277.91222</v>
+        <v>1283.39921</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>1254.66317</v>
+        <v>1260.60161</v>
       </c>
       <c r="J164" s="21" t="n">
-        <v>1951.70158</v>
+        <v>1975.16023</v>
       </c>
       <c r="K164" s="22" t="n">
         <v>2103.63735</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>2518.2552</v>
+        <v>2521.46718</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>3634.54988</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>3736.45317</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>3888.961</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>888.6261699999999</v>
@@ -7824,29 +8066,34 @@
         <v>1506.97517</v>
       </c>
       <c r="H165" s="21" t="n">
-        <v>1738.37196</v>
+        <v>1742.63816</v>
       </c>
       <c r="I165" s="22" t="n">
-        <v>2051.56277</v>
+        <v>2099.04472</v>
       </c>
       <c r="J165" s="21" t="n">
-        <v>2725.894229999999</v>
+        <v>2725.89423</v>
       </c>
       <c r="K165" s="22" t="n">
         <v>3134.8952</v>
       </c>
       <c r="L165" s="22" t="n">
-        <v>2655.893189999999</v>
+        <v>2659.53546</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>2285.24478</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>2288.88705</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>3114.104</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>53.24737</v>
@@ -7858,7 +8105,7 @@
         <v>83.79921</v>
       </c>
       <c r="F166" s="21" t="n">
-        <v>69.57187999999999</v>
+        <v>69.57188000000001</v>
       </c>
       <c r="G166" s="22" t="n">
         <v>81.78013</v>
@@ -7879,14 +8126,19 @@
         <v>291.33198</v>
       </c>
       <c r="M166" s="22" t="n">
-        <v>741.40248</v>
-      </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+        <v>741.97955</v>
+      </c>
+      <c r="N166" s="22" t="n">
+        <v>749.2140000000001</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>1894.53863</v>
@@ -7901,10 +8153,10 @@
         <v>1351.28915</v>
       </c>
       <c r="G167" s="23" t="n">
-        <v>2044.93708</v>
+        <v>2048.60715</v>
       </c>
       <c r="H167" s="33" t="n">
-        <v>652.78137</v>
+        <v>654.2454299999999</v>
       </c>
       <c r="I167" s="23" t="n">
         <v>852.7701100000002</v>
@@ -7916,17 +8168,22 @@
         <v>1405.63043</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>1569.34909</v>
+        <v>1572.76826</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>1986.66846</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>2041.80945</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>4116.746</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>8399.937</v>
@@ -7938,13 +8195,13 @@
         <v>10914.54222</v>
       </c>
       <c r="F168" s="21" t="n">
-        <v>5689.59354</v>
+        <v>5689.593539999999</v>
       </c>
       <c r="G168" s="22" t="n">
-        <v>5301.76653</v>
+        <v>5349.51251</v>
       </c>
       <c r="H168" s="21" t="n">
-        <v>1152.43913</v>
+        <v>1153.90319</v>
       </c>
       <c r="I168" s="22" t="n">
         <v>1554.40438</v>
@@ -7956,23 +8213,28 @@
         <v>1585.2811</v>
       </c>
       <c r="L168" s="22" t="n">
-        <v>2510.56246</v>
+        <v>2514.35944</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>5304.79716</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>5366.60343</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>11771.944</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>6934.31065</v>
       </c>
       <c r="D169" s="22" t="n">
-        <v>6406.289949999999</v>
+        <v>6406.289950000001</v>
       </c>
       <c r="E169" s="22" t="n">
         <v>9258.26837</v>
@@ -7981,13 +8243,13 @@
         <v>4414.09619</v>
       </c>
       <c r="G169" s="22" t="n">
-        <v>4219.41787</v>
+        <v>4263.493780000001</v>
       </c>
       <c r="H169" s="21" t="n">
         <v>515.6577600000001</v>
       </c>
       <c r="I169" s="22" t="n">
-        <v>890.4659199999999</v>
+        <v>890.4659200000001</v>
       </c>
       <c r="J169" s="21" t="n">
         <v>403.65416</v>
@@ -7996,17 +8258,22 @@
         <v>481.82796</v>
       </c>
       <c r="L169" s="22" t="n">
-        <v>1176.20479</v>
+        <v>1176.5826</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>3552.22012</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>3558.8854</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>7889.289</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>404.764</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>3.54073</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>218.09142</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>218.091</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>20.60755</v>
@@ -8121,12 +8398,17 @@
       <c r="M172" s="22" t="n">
         <v>16</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>16</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>325.03125</v>
@@ -8138,10 +8420,10 @@
         <v>588.33586</v>
       </c>
       <c r="F173" s="33" t="n">
-        <v>645.4938999999999</v>
+        <v>645.4939000000001</v>
       </c>
       <c r="G173" s="23" t="n">
-        <v>979.9108499999999</v>
+        <v>982.11585</v>
       </c>
       <c r="H173" s="33" t="n">
         <v>411.69263</v>
@@ -8159,14 +8441,19 @@
         <v>691.35446</v>
       </c>
       <c r="M173" s="23" t="n">
-        <v>696.4377999999999</v>
-      </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+        <v>696.56913</v>
+      </c>
+      <c r="N173" s="23" t="n">
+        <v>893.63</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>0</v>
@@ -8201,12 +8488,17 @@
       <c r="M174" s="22" t="n">
         <v>120</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>478.387</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>325.03125</v>
@@ -8215,13 +8507,13 @@
         <v>340.89177</v>
       </c>
       <c r="E175" s="22" t="n">
-        <v>557.25668</v>
+        <v>557.2566800000001</v>
       </c>
       <c r="F175" s="21" t="n">
-        <v>645.4938999999999</v>
+        <v>645.4939000000001</v>
       </c>
       <c r="G175" s="22" t="n">
-        <v>972.28358</v>
+        <v>974.4885800000001</v>
       </c>
       <c r="H175" s="21" t="n">
         <v>411.69263</v>
@@ -8239,20 +8531,25 @@
         <v>215.63688</v>
       </c>
       <c r="M175" s="22" t="n">
-        <v>576.4377999999999</v>
-      </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+        <v>576.56913</v>
+      </c>
+      <c r="N175" s="22" t="n">
+        <v>415.243</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>256.25521</v>
       </c>
       <c r="D176" s="23" t="n">
-        <v>625.29823</v>
+        <v>625.2982300000001</v>
       </c>
       <c r="E176" s="23" t="n">
         <v>213.29418</v>
@@ -8276,17 +8573,22 @@
         <v>704.09546</v>
       </c>
       <c r="L176" s="23" t="n">
-        <v>1300.60811</v>
+        <v>1525.85543</v>
       </c>
       <c r="M176" s="23" t="n">
-        <v>797.4375199999999</v>
-      </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+        <v>911.31972</v>
+      </c>
+      <c r="N176" s="23" t="n">
+        <v>3173.807</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>253.01788</v>
@@ -8316,17 +8618,22 @@
         <v>488.29583</v>
       </c>
       <c r="L177" s="22" t="n">
-        <v>1076.57661</v>
+        <v>1119.79561</v>
       </c>
       <c r="M177" s="22" t="n">
-        <v>492.36745</v>
-      </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+        <v>606.24965</v>
+      </c>
+      <c r="N177" s="22" t="n">
+        <v>2639.499</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>3.21302</v>
@@ -8356,17 +8663,22 @@
         <v>215.76573</v>
       </c>
       <c r="L178" s="22" t="n">
-        <v>223.6204</v>
+        <v>242.14283</v>
       </c>
       <c r="M178" s="22" t="n">
         <v>305.06955</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>534.307</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0.02431</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>0.0005200000000000001</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8476,17 +8798,22 @@
         <v>0.0339</v>
       </c>
       <c r="L181" s="35" t="n">
-        <v>0.4111</v>
+        <v>163.91699</v>
       </c>
       <c r="M181" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>31550.83808</v>
@@ -8519,14 +8846,19 @@
         <v>39322.58398</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>35963.58959</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>36063.58959</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>63966.45</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>22993.24067</v>
@@ -8535,10 +8867,10 @@
         <v>30070.33308</v>
       </c>
       <c r="E183" s="23" t="n">
-        <v>53344.24215999999</v>
+        <v>53344.24216</v>
       </c>
       <c r="F183" s="33" t="n">
-        <v>69522.87899000001</v>
+        <v>69522.87899</v>
       </c>
       <c r="G183" s="23" t="n">
         <v>52478.476</v>
@@ -8561,12 +8893,17 @@
       <c r="M183" s="23" t="n">
         <v>21645.69458</v>
       </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+      <c r="N183" s="23" t="n">
+        <v>36567.481</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>20573.72264</v>
@@ -8578,7 +8915,7 @@
         <v>51957.95935</v>
       </c>
       <c r="F184" s="21" t="n">
-        <v>68146.04624000001</v>
+        <v>68146.04624</v>
       </c>
       <c r="G184" s="22" t="n">
         <v>50663.82333</v>
@@ -8601,12 +8938,17 @@
       <c r="M184" s="22" t="n">
         <v>19465.63456</v>
       </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+      <c r="N184" s="22" t="n">
+        <v>33245.015</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>2228.20646</v>
@@ -8624,7 +8966,7 @@
         <v>2116.69182</v>
       </c>
       <c r="H185" s="21" t="n">
-        <v>2846.391599999999</v>
+        <v>2846.3916</v>
       </c>
       <c r="I185" s="22" t="n">
         <v>1218.76055</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>2339.33144</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>3779.152</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>27.07792</v>
@@ -8676,17 +9023,22 @@
         <v>188.5802</v>
       </c>
       <c r="L186" s="22" t="n">
-        <v>68.71682999999999</v>
+        <v>68.71683</v>
       </c>
       <c r="M186" s="22" t="n">
         <v>159.27142</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>456.686</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>218.38949</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>870.56003</v>
@@ -8881,12 +9253,17 @@
       <c r="M191" s="23" t="n">
         <v>4348.47466</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>3138.677</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>405.52501</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>4173.98866</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>3031.628</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>81.849</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>174.486</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>107.049</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>148.509</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>234.67702</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>4483.19546</v>
@@ -9104,7 +9506,7 @@
         <v>3175.42026</v>
       </c>
       <c r="H197" s="33" t="n">
-        <v>4227.965560000001</v>
+        <v>4227.96556</v>
       </c>
       <c r="I197" s="23" t="n">
         <v>5173.432269999999</v>
@@ -9113,20 +9515,25 @@
         <v>7213.33817</v>
       </c>
       <c r="K197" s="23" t="n">
-        <v>8243.408890000001</v>
+        <v>8243.408889999999</v>
       </c>
       <c r="L197" s="23" t="n">
         <v>12500.96854</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>9009.59201</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>9109.59201</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>23790.106</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>3908.36331</v>
@@ -9147,10 +9554,10 @@
         <v>3634.17325</v>
       </c>
       <c r="I198" s="22" t="n">
-        <v>4643.04173</v>
+        <v>4643.041730000001</v>
       </c>
       <c r="J198" s="21" t="n">
-        <v>6083.425480000001</v>
+        <v>6083.42548</v>
       </c>
       <c r="K198" s="22" t="n">
         <v>6080.772980000001</v>
@@ -9161,12 +9568,17 @@
       <c r="M198" s="22" t="n">
         <v>7841.43187</v>
       </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+      <c r="N198" s="22" t="n">
+        <v>22745.679</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>1.04</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>132.74811</v>
@@ -9279,14 +9701,19 @@
         <v>2366.7774</v>
       </c>
       <c r="M201" s="22" t="n">
-        <v>118.11342</v>
-      </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+        <v>218.11342</v>
+      </c>
+      <c r="N201" s="22" t="n">
+        <v>245.349</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>442.08404</v>
@@ -9353,7 +9785,7 @@
         <v>447.29772</v>
       </c>
       <c r="K203" s="22" t="n">
-        <v>315.1191</v>
+        <v>315.1191000000001</v>
       </c>
       <c r="L203" s="22" t="n">
         <v>930.56929</v>
@@ -9361,12 +9793,17 @@
       <c r="M203" s="22" t="n">
         <v>1039.00672</v>
       </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+      <c r="N203" s="22" t="n">
+        <v>798.038</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>115.46361</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>770.98732</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>367.883</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>114.8995</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>735.98732</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>357.583</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0.56411</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>35</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>2923.75467</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>2916.43085</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>7.32382</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>15.99742</v>
@@ -9641,12 +10108,17 @@
       <c r="M210" s="23" t="n">
         <v>90.3034</v>
       </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+      <c r="N210" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>7.209</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>90.10016</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>8.78842</v>
@@ -9721,12 +10198,17 @@
       <c r="M212" s="22" t="n">
         <v>0.20324</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>148.62622</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>98.53761999999999</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>101.303</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>11.92622</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>4.3</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>136.7</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>94.23761999999999</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>97.003</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>384552.7805</v>
@@ -9895,38 +10397,43 @@
         <v>255241.75962</v>
       </c>
       <c r="E217" s="23" t="n">
-        <v>296956.0067199999</v>
+        <v>296956.00672</v>
       </c>
       <c r="F217" s="33" t="n">
         <v>224229.32819</v>
       </c>
       <c r="G217" s="23" t="n">
-        <v>212815.90686</v>
+        <v>210746.5465</v>
       </c>
       <c r="H217" s="33" t="n">
-        <v>66992.5022</v>
+        <v>67463.49531999999</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>69494.95149000001</v>
+        <v>69528.85746000001</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>76180.36808999999</v>
+        <v>75984.90588999999</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>104859.44042</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>103157.86561</v>
+        <v>103129.20799</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>132068.70527</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>132666.3935</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>187376.784</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>135170.32696</v>
@@ -9941,16 +10448,16 @@
         <v>139627.74813</v>
       </c>
       <c r="G218" s="23" t="n">
-        <v>112241.85787</v>
+        <v>112627.69808</v>
       </c>
       <c r="H218" s="33" t="n">
-        <v>36039.44884</v>
+        <v>36471.44884</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>31351.58207</v>
+        <v>31478.28207</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>33285.09023</v>
+        <v>33535.09023</v>
       </c>
       <c r="K218" s="23" t="n">
         <v>42550.14255</v>
@@ -9959,14 +10466,19 @@
         <v>42997.47343999999</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>49102.21443</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>49382.42243</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>59825.825</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>108148.75306</v>
@@ -9981,32 +10493,37 @@
         <v>142276.06851</v>
       </c>
       <c r="G219" s="22" t="n">
-        <v>112306.22262</v>
+        <v>112566.22262</v>
       </c>
       <c r="H219" s="21" t="n">
-        <v>39820.69276999999</v>
+        <v>40260.19276999999</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>34699.69389</v>
+        <v>34826.39389</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>37381.73895000001</v>
+        <v>37631.73895000001</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>47118.79806</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>47799.21261</v>
+        <v>49059.21261</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>58869.8399</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>61728.6479</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>82266.962</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>13655.30484</v>
@@ -10021,10 +10538,10 @@
         <v>12309.91999</v>
       </c>
       <c r="G220" s="22" t="n">
-        <v>6929.5251</v>
+        <v>6937.0251</v>
       </c>
       <c r="H220" s="21" t="n">
-        <v>5894.35568</v>
+        <v>5901.85568</v>
       </c>
       <c r="I220" s="22" t="n">
         <v>6453.334039999999</v>
@@ -10033,20 +10550,25 @@
         <v>6373.63499</v>
       </c>
       <c r="K220" s="22" t="n">
-        <v>7213.15141</v>
+        <v>7213.151409999999</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>6851.36814</v>
+        <v>8111.36814</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>11800.10333</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>14378.70333</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>24405.5</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>40676.87874</v>
@@ -10061,7 +10583,7 @@
         <v>9661.599609999999</v>
       </c>
       <c r="G221" s="22" t="n">
-        <v>6865.16035</v>
+        <v>6998.500559999999</v>
       </c>
       <c r="H221" s="21" t="n">
         <v>2113.11175</v>
@@ -10070,7 +10592,7 @@
         <v>3105.22222</v>
       </c>
       <c r="J221" s="21" t="n">
-        <v>2276.986269999999</v>
+        <v>2276.98627</v>
       </c>
       <c r="K221" s="22" t="n">
         <v>2644.4959</v>
@@ -10081,12 +10603,17 @@
       <c r="M221" s="22" t="n">
         <v>2032.47786</v>
       </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+      <c r="N221" s="22" t="n">
+        <v>1964.363</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>0</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>1397.08085</v>
@@ -10144,7 +10676,7 @@
         <v>2068.79411</v>
       </c>
       <c r="H223" s="33" t="n">
-        <v>397.14882</v>
+        <v>397.1488200000001</v>
       </c>
       <c r="I223" s="23" t="n">
         <v>278.72694</v>
@@ -10159,14 +10691,19 @@
         <v>310.01623</v>
       </c>
       <c r="M223" s="23" t="n">
-        <v>312.43158</v>
-      </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+        <v>312.4315799999999</v>
+      </c>
+      <c r="N223" s="23" t="n">
+        <v>234.615</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>149.05147</v>
@@ -10255,7 +10802,7 @@
         <v>274.28457</v>
       </c>
       <c r="E226" s="22" t="n">
-        <v>853.11422</v>
+        <v>853.1142199999999</v>
       </c>
       <c r="F226" s="21" t="n">
         <v>665.7738900000001</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>149.6401</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>152.493</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>32.184</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>32.184</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>1248.02938</v>
@@ -10441,30 +11008,35 @@
       <c r="M230" s="22" t="n">
         <v>130.60748</v>
       </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+      <c r="N230" s="22" t="n">
+        <v>49.938</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>67052.37235000001</v>
       </c>
       <c r="D231" s="23" t="n">
-        <v>60053.08447000002</v>
+        <v>60053.08447</v>
       </c>
       <c r="E231" s="23" t="n">
-        <v>69269.89659</v>
+        <v>69269.89658999999</v>
       </c>
       <c r="F231" s="33" t="n">
         <v>31983.36346</v>
       </c>
       <c r="G231" s="23" t="n">
-        <v>34372.79465</v>
+        <v>34431.18403</v>
       </c>
       <c r="H231" s="33" t="n">
-        <v>12119.42751</v>
+        <v>12162.9454</v>
       </c>
       <c r="I231" s="23" t="n">
         <v>14026.28862</v>
@@ -10481,12 +11053,17 @@
       <c r="M231" s="23" t="n">
         <v>15712.13716</v>
       </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+      <c r="N231" s="23" t="n">
+        <v>15922.674</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>22100.77842</v>
@@ -10495,25 +11072,25 @@
         <v>7539.384160000001</v>
       </c>
       <c r="E232" s="22" t="n">
-        <v>9343.768139999998</v>
+        <v>9343.76814</v>
       </c>
       <c r="F232" s="21" t="n">
         <v>5669.906019999999</v>
       </c>
       <c r="G232" s="22" t="n">
-        <v>6053.775909999999</v>
+        <v>6112.16529</v>
       </c>
       <c r="H232" s="21" t="n">
-        <v>3860.17759</v>
+        <v>3866.60313</v>
       </c>
       <c r="I232" s="22" t="n">
         <v>4249.44385</v>
       </c>
       <c r="J232" s="21" t="n">
-        <v>4535.073370000001</v>
+        <v>4535.07337</v>
       </c>
       <c r="K232" s="22" t="n">
-        <v>7608.35582</v>
+        <v>7608.355820000001</v>
       </c>
       <c r="L232" s="22" t="n">
         <v>6327.39777</v>
@@ -10521,12 +11098,17 @@
       <c r="M232" s="22" t="n">
         <v>6657.25338</v>
       </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+      <c r="N232" s="22" t="n">
+        <v>6159.636</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>1259.73561</v>
@@ -10561,15 +11143,20 @@
       <c r="M233" s="22" t="n">
         <v>1735.02461</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>1869.314</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
-        <v>35565.92037000001</v>
+        <v>35565.92037</v>
       </c>
       <c r="D234" s="22" t="n">
         <v>47243.47901</v>
@@ -10584,7 +11171,7 @@
         <v>22981.0647</v>
       </c>
       <c r="H234" s="21" t="n">
-        <v>1978.25207</v>
+        <v>1983.37701</v>
       </c>
       <c r="I234" s="22" t="n">
         <v>2363.5851</v>
@@ -10601,12 +11188,17 @@
       <c r="M234" s="22" t="n">
         <v>2886.4678</v>
       </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+      <c r="N234" s="22" t="n">
+        <v>3291.754</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>1137.31451</v>
@@ -10641,15 +11233,20 @@
       <c r="M235" s="22" t="n">
         <v>843.81899</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>834.479</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
-        <v>6988.62344</v>
+        <v>6988.623439999999</v>
       </c>
       <c r="D236" s="22" t="n">
         <v>2993.6772</v>
@@ -10664,7 +11261,7 @@
         <v>2553.51934</v>
       </c>
       <c r="H236" s="21" t="n">
-        <v>4017.782889999999</v>
+        <v>4049.7503</v>
       </c>
       <c r="I236" s="22" t="n">
         <v>5083.990970000001</v>
@@ -10681,52 +11278,62 @@
       <c r="M236" s="22" t="n">
         <v>3589.57238</v>
       </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="N236" s="22" t="n">
+        <v>3767.491</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>78211.59828000001</v>
       </c>
       <c r="D237" s="23" t="n">
-        <v>65197.44211</v>
+        <v>65197.44210999999</v>
       </c>
       <c r="E237" s="23" t="n">
         <v>79873.87594</v>
       </c>
       <c r="F237" s="33" t="n">
-        <v>61019.89495999999</v>
+        <v>61019.89496</v>
       </c>
       <c r="G237" s="23" t="n">
-        <v>55995.98491</v>
+        <v>56101.55617</v>
       </c>
       <c r="H237" s="33" t="n">
-        <v>23963.60602</v>
+        <v>23989.32128</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>28232.20441</v>
+        <v>28247.46455</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>34203.63204</v>
+        <v>34379.08826999999</v>
       </c>
       <c r="K237" s="23" t="n">
-        <v>47892.60925000001</v>
+        <v>47892.60925</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>52191.13905</v>
+        <v>52251.06509</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>67904.16344</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>69452.79904</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>85540.762</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-40488.45936</v>
@@ -10741,32 +11348,37 @@
         <v>-38036.06479</v>
       </c>
       <c r="G238" s="23" t="n">
-        <v>-20038.8647</v>
+        <v>-21157.21539</v>
       </c>
       <c r="H238" s="33" t="n">
-        <v>-10726.00401</v>
+        <v>-10770.3048</v>
       </c>
       <c r="I238" s="23" t="n">
         <v>-11285.17189</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-13224.23381</v>
+        <v>-13224.23392</v>
       </c>
       <c r="K238" s="23" t="n">
         <v>-17534.93975</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-17793.74557</v>
+        <v>-17832.49217</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-23124.73622</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-24532.03348</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-26576.773</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>143209.86142</v>
@@ -10781,32 +11393,37 @@
         <v>26959.95767</v>
       </c>
       <c r="G239" s="23" t="n">
-        <v>28175.34002</v>
+        <v>26674.5295</v>
       </c>
       <c r="H239" s="33" t="n">
-        <v>5198.87502</v>
+        <v>5212.935780000001</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>6891.32134</v>
+        <v>6783.26717</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>6368.57637</v>
+        <v>5747.65805</v>
       </c>
       <c r="K239" s="23" t="n">
-        <v>9859.917310000001</v>
+        <v>9859.917309999999</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>6788.871650000001</v>
+        <v>6739.03459</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>22162.49488</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>22338.63677</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>52429.681</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>150682.21885</v>
@@ -10815,38 +11432,43 @@
         <v>43194.93411</v>
       </c>
       <c r="E240" s="22" t="n">
-        <v>53478.40259999999</v>
+        <v>53478.4026</v>
       </c>
       <c r="F240" s="21" t="n">
         <v>34422.98567</v>
       </c>
       <c r="G240" s="22" t="n">
-        <v>32243.64578</v>
+        <v>32434.62972</v>
       </c>
       <c r="H240" s="21" t="n">
-        <v>8888.248170000001</v>
+        <v>8902.308929999999</v>
       </c>
       <c r="I240" s="22" t="n">
         <v>10999.16592</v>
       </c>
       <c r="J240" s="21" t="n">
-        <v>11072.27053</v>
+        <v>11072.27064</v>
       </c>
       <c r="K240" s="22" t="n">
         <v>13951.12085</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>14679.89398</v>
+        <v>14693.0679</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>26859.6267</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>27155.10952</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>58110.095</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>7472.35743</v>
@@ -10861,69 +11483,77 @@
         <v>7463.028</v>
       </c>
       <c r="G241" s="22" t="n">
-        <v>4068.30576</v>
+        <v>5760.10022</v>
       </c>
       <c r="H241" s="21" t="n">
         <v>3689.37315</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>4107.84458</v>
+        <v>4215.89875</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>4703.69416</v>
+        <v>5324.61259</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>4091.20354</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>7891.02233</v>
+        <v>7954.033310000001</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>4697.131820000001</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>4816.47275</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>5680.414</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>610119.7987899999</v>
       </c>
       <c r="D242" s="47" t="n">
-        <v>475951.65748</v>
+        <v>475951.6574799999</v>
       </c>
       <c r="E242" s="47" t="n">
         <v>627321.35706</v>
       </c>
       <c r="F242" s="48" t="n">
-        <v>610608.66107</v>
+        <v>610608.6610699999</v>
       </c>
       <c r="G242" s="47" t="n">
-        <v>523822.4776699999</v>
+        <v>541038.1013499999</v>
       </c>
       <c r="H242" s="48" t="n">
-        <v>168919.12394</v>
+        <v>169566.49481</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>199119.61747</v>
+        <v>199685.20992</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>212632.21945</v>
+        <v>212632.85326</v>
       </c>
       <c r="K242" s="47" t="n">
         <v>295119.67009</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>306376.0390599999</v>
+        <v>306934.1303</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>382877.24016</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>387750.69906</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>502908.178</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>520</v>
@@ -10957,29 +11590,32 @@
         <v>512</v>
       </c>
       <c r="G244" s="52" t="n">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="H244" s="53" t="n">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>558</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>536</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>561</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>612</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>